--- a/data/trans_orig/P14B22-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B7A9F72-3CB1-4C74-849B-56141574866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27338A2B-1C11-4C10-91D9-BD824072442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07477852-A595-4D39-AAA9-C87A92AD0133}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69CADDC4-039C-44A7-9EC2-BBACBECF4484}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="275">
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2012 (Tasa respuesta: 0,78%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>50,39%</t>
+    <t>47,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -100,7 +100,7 @@
     <t>92,99%</t>
   </si>
   <si>
-    <t>63,27%</t>
+    <t>65,88%</t>
   </si>
   <si>
     <t>10,01%</t>
@@ -109,7 +109,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,61%</t>
+    <t>52,15%</t>
   </si>
   <si>
     <t>0%</t>
@@ -121,7 +121,7 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>36,73%</t>
+    <t>34,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -157,7 +157,10 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -166,16 +169,19 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>86,11%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -184,10 +190,10 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -199,7 +205,7 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>42,57%</t>
+    <t>42,41%</t>
   </si>
   <si>
     <t>25,28%</t>
@@ -208,7 +214,7 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>57,43%</t>
+    <t>57,59%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -235,7 +241,7 @@
     <t>84,93%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>36,12%</t>
   </si>
   <si>
     <t>49,03%</t>
@@ -244,7 +250,7 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>63,86%</t>
+    <t>63,88%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -253,7 +259,7 @@
     <t>59,46%</t>
   </si>
   <si>
-    <t>18,6%</t>
+    <t>18,73%</t>
   </si>
   <si>
     <t>64,39%</t>
@@ -262,16 +268,16 @@
     <t>61,34%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>81,4%</t>
+    <t>81,27%</t>
   </si>
   <si>
     <t>35,61%</t>
@@ -280,64 +286,64 @@
     <t>38,66%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -355,13 +361,13 @@
     <t>63,11%</t>
   </si>
   <si>
-    <t>15,93%</t>
+    <t>15,87%</t>
   </si>
   <si>
     <t>36,89%</t>
   </si>
   <si>
-    <t>84,07%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>32,16%</t>
@@ -388,7 +394,7 @@
     <t>63,68%</t>
   </si>
   <si>
-    <t>20,06%</t>
+    <t>21,99%</t>
   </si>
   <si>
     <t>31,08%</t>
@@ -403,7 +409,7 @@
     <t>36,32%</t>
   </si>
   <si>
-    <t>79,94%</t>
+    <t>78,01%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -418,7 +424,7 @@
     <t>31,2%</t>
   </si>
   <si>
-    <t>84,57%</t>
+    <t>76,73%</t>
   </si>
   <si>
     <t>50,2%</t>
@@ -427,7 +433,7 @@
     <t>68,8%</t>
   </si>
   <si>
-    <t>15,43%</t>
+    <t>23,27%</t>
   </si>
   <si>
     <t>57,14%</t>
@@ -439,55 +445,55 @@
     <t>56,35%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
@@ -508,10 +514,10 @@
     <t>58,18%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>57,68%</t>
@@ -526,19 +532,19 @@
     <t>58,02%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>42,32%</t>
@@ -553,10 +559,10 @@
     <t>41,98%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
   </si>
   <si>
     <t>52,07%</t>
@@ -565,19 +571,19 @@
     <t>57,96%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>47,93%</t>
@@ -586,76 +592,76 @@
     <t>42,04%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>65,59%</t>
   </si>
   <si>
-    <t>17,34%</t>
+    <t>17,26%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>50,89%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>82,66%</t>
+    <t>82,74%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>49,11%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>70,08%</t>
@@ -670,19 +676,19 @@
     <t>70,43%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
   </si>
   <si>
     <t>29,92%</t>
@@ -697,160 +703,166 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>29,21%</t>
+    <t>30,77%</t>
   </si>
   <si>
     <t>44,8%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>56,84%</t>
   </si>
   <si>
-    <t>77,64%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>26,73%</t>
   </si>
   <si>
-    <t>70,79%</t>
+    <t>69,23%</t>
   </si>
   <si>
     <t>55,2%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>43,16%</t>
   </si>
   <si>
-    <t>22,36%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>58,29%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>48,15%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>41,71%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>51,85%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>61,04%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>38,96%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FD897E-E231-4ED0-98E2-869BD6F07200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F9159F-4E40-4E28-A55F-133E62046CBD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1839,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1851,7 +1863,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
@@ -1863,13 +1875,13 @@
         <v>8776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1896,13 @@
         <v>2932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1905,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1914,13 +1926,13 @@
         <v>2932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2003,7 +2015,7 @@
         <v>2931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
@@ -2018,10 +2030,10 @@
         <v>6166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2054,7 +2066,7 @@
         <v>992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
@@ -2069,13 +2081,13 @@
         <v>992</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2143,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2161,7 +2173,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>18</v>
@@ -2173,7 +2185,7 @@
         <v>2156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>22</v>
@@ -2215,7 +2227,7 @@
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2224,7 +2236,7 @@
         <v>959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
@@ -2286,7 +2298,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2298,7 +2310,7 @@
         <v>957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
@@ -2328,10 +2340,10 @@
         <v>5190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -2349,7 +2361,7 @@
         <v>921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -2379,13 +2391,13 @@
         <v>921</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2453,10 +2465,10 @@
         <v>3191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2468,7 +2480,7 @@
         <v>2138</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>22</v>
@@ -2483,13 +2495,13 @@
         <v>5330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2516,13 @@
         <v>2175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2519,7 +2531,7 @@
         <v>1183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
@@ -2534,13 +2546,13 @@
         <v>3358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2620,13 @@
         <v>23570</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -2623,13 +2635,13 @@
         <v>21036</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -2638,13 +2650,13 @@
         <v>44606</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2671,13 @@
         <v>8047</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2674,13 +2686,13 @@
         <v>3276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2689,13 +2701,13 @@
         <v>11323</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2763,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8814CE7E-4632-412D-A5F4-64B2E3FA7593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02698B2E-22C6-4F51-AE61-A8FE9FFCD3FA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2792,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2899,7 +2911,7 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
@@ -2927,7 +2939,7 @@
         <v>794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
@@ -2948,7 +2960,7 @@
         <v>1735</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
@@ -2976,7 +2988,7 @@
         <v>1735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
@@ -3048,10 +3060,10 @@
         <v>3907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -3076,10 +3088,10 @@
         <v>3907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3097,13 +3109,13 @@
         <v>2284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3125,13 +3137,13 @@
         <v>2284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3209,7 @@
         <v>782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
@@ -3227,7 +3239,7 @@
         <v>782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
@@ -3248,7 +3260,7 @@
         <v>1651</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
@@ -3278,7 +3290,7 @@
         <v>2648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
@@ -3352,7 +3364,7 @@
         <v>1991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
@@ -3367,10 +3379,10 @@
         <v>3267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3382,10 +3394,10 @@
         <v>5258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3403,7 +3415,7 @@
         <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
@@ -3418,13 +3430,13 @@
         <v>2101</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3433,13 +3445,13 @@
         <v>3000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3507,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3540,7 +3552,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -3594,7 +3606,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3662,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3799,7 +3811,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3817,7 +3829,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3826,7 +3838,7 @@
         <v>2377</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
@@ -3841,13 +3853,13 @@
         <v>2377</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>18</v>
@@ -3877,7 +3889,7 @@
         <v>2396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
@@ -3892,10 +3904,10 @@
         <v>5242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3954,7 +3966,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3979,7 +3991,7 @@
         <v>2869</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>22</v>
@@ -3994,7 +4006,7 @@
         <v>2869</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>22</v>
@@ -4028,7 +4040,7 @@
         <v>2153</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
@@ -4043,7 +4055,7 @@
         <v>2153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
@@ -4115,13 +4127,13 @@
         <v>12154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -4130,13 +4142,13 @@
         <v>13154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -4145,13 +4157,13 @@
         <v>25307</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4178,13 @@
         <v>9414</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4181,13 +4193,13 @@
         <v>7646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4196,13 +4208,13 @@
         <v>17061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4270,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4282,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26EF395-B435-4018-B2C1-80292112C4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61725467-2237-48B1-8708-ED542679E622}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4299,7 +4311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4421,7 +4433,7 @@
         <v>542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>22</v>
@@ -4436,7 +4448,7 @@
         <v>1284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
@@ -4472,7 +4484,7 @@
         <v>410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -4487,7 +4499,7 @@
         <v>410</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
@@ -4579,7 +4591,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -4594,7 +4606,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>18</v>
@@ -4633,7 +4645,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4648,7 +4660,7 @@
         <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4728,13 @@
         <v>5551</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4731,13 +4743,13 @@
         <v>2572</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4746,13 +4758,13 @@
         <v>8123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4779,13 @@
         <v>3990</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4782,13 +4794,13 @@
         <v>1888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4797,13 +4809,13 @@
         <v>5878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4883,7 @@
         <v>1503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
@@ -4886,13 +4898,13 @@
         <v>2705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4901,13 +4913,13 @@
         <v>4208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4934,7 @@
         <v>1384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
@@ -4937,13 +4949,13 @@
         <v>1962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -4952,13 +4964,13 @@
         <v>3346</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +5026,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5026,10 +5038,10 @@
         <v>2546</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -5041,13 +5053,13 @@
         <v>921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5056,13 +5068,13 @@
         <v>3468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5089,13 @@
         <v>1336</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5092,13 +5104,13 @@
         <v>2011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5107,13 +5119,13 @@
         <v>3346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5181,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5181,13 +5193,13 @@
         <v>4339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -5196,13 +5208,13 @@
         <v>3262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -5211,13 +5223,13 @@
         <v>7601</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5244,13 @@
         <v>1798</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5247,13 +5259,13 @@
         <v>1393</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -5262,13 +5274,13 @@
         <v>3191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5336,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5336,10 +5348,10 @@
         <v>4824</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -5351,13 +5363,13 @@
         <v>4025</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5366,13 +5378,13 @@
         <v>8849</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5399,13 @@
         <v>1760</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -5402,13 +5414,13 @@
         <v>4959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -5417,13 +5429,13 @@
         <v>6719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5491,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5491,13 +5503,13 @@
         <v>6499</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5506,13 +5518,13 @@
         <v>2526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5521,13 +5533,13 @@
         <v>9025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5554,13 @@
         <v>4650</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5557,13 +5569,13 @@
         <v>5069</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5572,13 +5584,13 @@
         <v>9720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5658,13 @@
         <v>30301</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5661,13 +5673,13 @@
         <v>20798</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M28" s="7">
         <v>75</v>
@@ -5676,13 +5688,13 @@
         <v>51100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5709,13 @@
         <v>14918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -5712,13 +5724,13 @@
         <v>17692</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -5727,13 +5739,13 @@
         <v>32609</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5801,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B22-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B22-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27338A2B-1C11-4C10-91D9-BD824072442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{870504F5-43BD-446D-AAED-B2A65F0EB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69CADDC4-039C-44A7-9EC2-BBACBECF4484}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2194B6B5-D449-46A3-9D67-3CC6D3FA7A97}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -85,7 +85,7 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>47,85%</t>
+    <t>49,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -100,7 +100,7 @@
     <t>92,99%</t>
   </si>
   <si>
-    <t>65,88%</t>
+    <t>66,88%</t>
   </si>
   <si>
     <t>10,01%</t>
@@ -109,7 +109,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>52,15%</t>
+    <t>50,97%</t>
   </si>
   <si>
     <t>0%</t>
@@ -121,7 +121,7 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>34,12%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -157,10 +157,10 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -169,19 +169,19 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -190,10 +190,10 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -205,7 +205,7 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>42,41%</t>
+    <t>42,79%</t>
   </si>
   <si>
     <t>25,28%</t>
@@ -214,7 +214,7 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>57,59%</t>
+    <t>57,21%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -235,22 +235,16 @@
     <t>Malaga</t>
   </si>
   <si>
-    <t>50,97%</t>
-  </si>
-  <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>35,94%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>63,88%</t>
+    <t>64,06%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -268,10 +262,10 @@
     <t>61,34%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>40,54%</t>
@@ -286,70 +280,70 @@
     <t>38,66%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo accidente cerebrovascular le limita en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población cuyo accidente cerebrovascular le limita en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>31,38%</t>
@@ -361,13 +355,13 @@
     <t>63,11%</t>
   </si>
   <si>
-    <t>15,87%</t>
+    <t>15,9%</t>
   </si>
   <si>
     <t>36,89%</t>
   </si>
   <si>
-    <t>84,13%</t>
+    <t>84,1%</t>
   </si>
   <si>
     <t>32,16%</t>
@@ -376,12 +370,18 @@
     <t>22,81%</t>
   </si>
   <si>
+    <t>75,0%</t>
+  </si>
+  <si>
     <t>67,84%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
+    <t>25,0%</t>
+  </si>
+  <si>
     <t>68,92%</t>
   </si>
   <si>
@@ -394,7 +394,7 @@
     <t>63,68%</t>
   </si>
   <si>
-    <t>21,99%</t>
+    <t>20,7%</t>
   </si>
   <si>
     <t>31,08%</t>
@@ -409,7 +409,7 @@
     <t>36,32%</t>
   </si>
   <si>
-    <t>78,01%</t>
+    <t>79,3%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -424,7 +424,7 @@
     <t>31,2%</t>
   </si>
   <si>
-    <t>76,73%</t>
+    <t>76,63%</t>
   </si>
   <si>
     <t>50,2%</t>
@@ -433,7 +433,7 @@
     <t>68,8%</t>
   </si>
   <si>
-    <t>23,27%</t>
+    <t>23,37%</t>
   </si>
   <si>
     <t>57,14%</t>
@@ -445,55 +445,55 @@
     <t>56,35%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
   </si>
   <si>
     <t>Población cuyo accidente cerebrovascular le limita en 2023 (Tasa respuesta: 1,44%)</t>
@@ -1274,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F9159F-4E40-4E28-A55F-133E62046CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32E438-A469-4762-8984-D83381A84B48}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2310,7 @@
         <v>957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
@@ -2340,10 +2340,10 @@
         <v>5190</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -2361,7 +2361,7 @@
         <v>921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>22</v>
@@ -2391,13 +2391,13 @@
         <v>921</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2465,10 +2465,10 @@
         <v>3191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2480,7 +2480,7 @@
         <v>2138</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>22</v>
@@ -2495,13 +2495,13 @@
         <v>5330</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2516,13 @@
         <v>2175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>1183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
@@ -2546,13 +2546,13 @@
         <v>3358</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2620,13 @@
         <v>23570</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -2635,13 +2635,13 @@
         <v>21036</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -2650,13 +2650,13 @@
         <v>44606</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2671,13 @@
         <v>8047</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2686,13 +2686,13 @@
         <v>3276</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2701,13 +2701,13 @@
         <v>11323</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2763,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02698B2E-22C6-4F51-AE61-A8FE9FFCD3FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E5EF5B-731E-4592-9743-6F092C79C674}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2804,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2911,7 +2911,7 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
@@ -2939,7 +2939,7 @@
         <v>794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
@@ -2960,7 +2960,7 @@
         <v>1735</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
@@ -2988,7 +2988,7 @@
         <v>1735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
@@ -3060,10 +3060,10 @@
         <v>3907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -3088,10 +3088,10 @@
         <v>3907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3109,13 +3109,13 @@
         <v>2284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>2284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,7 +3209,7 @@
         <v>782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
@@ -3239,13 +3239,13 @@
         <v>782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,7 +3260,7 @@
         <v>1651</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
@@ -3290,10 +3290,10 @@
         <v>2648</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61725467-2237-48B1-8708-ED542679E622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB067087-041C-4605-A561-AF7C5B36A310}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5491,7 +5491,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
